--- a/results_files/Sample/2-mst_file.xlsx
+++ b/results_files/Sample/2-mst_file.xlsx
@@ -76,9 +76,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -102,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,10 +140,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0">
@@ -144,10 +151,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0">
@@ -155,10 +162,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="0">
@@ -166,10 +173,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="0">
@@ -177,10 +184,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="0">
@@ -188,10 +195,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="0">
@@ -199,10 +206,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="0">
@@ -210,10 +217,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="0">
@@ -221,6 +228,24 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="http://moss.stanford.edu/results/0/4012916089008/match1.html" r:id="rId1"/>
+    <hyperlink ref="B2" display="http://moss.stanford.edu/results/0/4012916089008/match1.html" r:id="rId2"/>
+    <hyperlink ref="A3" display="http://moss.stanford.edu/results/0/4012916089008/match2.html" r:id="rId3"/>
+    <hyperlink ref="B3" display="http://moss.stanford.edu/results/0/4012916089008/match2.html" r:id="rId4"/>
+    <hyperlink ref="A4" display="http://moss.stanford.edu/results/0/4012916089008/match4.html" r:id="rId5"/>
+    <hyperlink ref="B4" display="http://moss.stanford.edu/results/0/4012916089008/match4.html" r:id="rId6"/>
+    <hyperlink ref="A5" display="http://moss.stanford.edu/results/0/4012916089008/match3.html" r:id="rId7"/>
+    <hyperlink ref="B5" display="http://moss.stanford.edu/results/0/4012916089008/match3.html" r:id="rId8"/>
+    <hyperlink ref="A6" display="http://moss.stanford.edu/results/0/4012916089008/match7.html" r:id="rId9"/>
+    <hyperlink ref="B6" display="http://moss.stanford.edu/results/0/4012916089008/match7.html" r:id="rId10"/>
+    <hyperlink ref="A7" display="http://moss.stanford.edu/results/0/4012916089008/match9.html" r:id="rId11"/>
+    <hyperlink ref="B7" display="http://moss.stanford.edu/results/0/4012916089008/match9.html" r:id="rId12"/>
+    <hyperlink ref="A8" display="http://moss.stanford.edu/results/0/4012916089008/match6.html" r:id="rId13"/>
+    <hyperlink ref="B8" display="http://moss.stanford.edu/results/0/4012916089008/match6.html" r:id="rId14"/>
+    <hyperlink ref="A9" display="http://moss.stanford.edu/results/0/4012916089008/match8.html" r:id="rId15"/>
+    <hyperlink ref="B9" display="http://moss.stanford.edu/results/0/4012916089008/match8.html" r:id="rId16"/>
+  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/results_files/Sample/2-mst_file.xlsx
+++ b/results_files/Sample/2-mst_file.xlsx
@@ -127,6 +127,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.82098960876465" customWidth="1"/>
+    <col min="2" max="2" width="17.72733497619629" customWidth="1"/>
+    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">

--- a/results_files/Sample/2-mst_file.xlsx
+++ b/results_files/Sample/2-mst_file.xlsx
@@ -127,11 +127,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.82098960876465" customWidth="1"/>
-    <col min="2" max="2" width="17.72733497619629" customWidth="1"/>
-    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
